--- a/output/commodity_indicators_summary.xlsx
+++ b/output/commodity_indicators_summary.xlsx
@@ -561,82 +561,82 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>318.07</t>
+          <t>369.12</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>307.43</t>
+          <t>338.91</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>83 B USD</t>
+          <t>96 B USD</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>15,617,700</t>
+          <t>24,106,500</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>3.86%</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>36.54%</t>
+          <t>52.01%</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>99.6%</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>13.24%</t>
+          <t>14.88%</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>17.43%</t>
+          <t>17.76%</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>15.05%</t>
+          <t>15.11%</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>3.5452</t>
+          <t>13.2088</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>1.8581</t>
+          <t>2.7039</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>0.4662</t>
+          <t>0.7242</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>51.43%</t>
+          <t>201.05%</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>36.88%</t>
+          <t>52.52%</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>11.52%</t>
+          <t>15.44%</t>
         </is>
       </c>
     </row>
@@ -653,12 +653,12 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>64.40</t>
+          <t>58.90</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>62.80</t>
+          <t>63.30</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -668,67 +668,67 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>12,909</t>
+          <t>259,171</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>-4.35%</t>
+          <t>-7.49%</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>-8.44%</t>
+          <t>-22.35%</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>23.81%</t>
+          <t>1.98%</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>21.01%</t>
+          <t>27.61%</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>33.34%</t>
+          <t>32.24%</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>37.03%</t>
+          <t>36.52%</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>-2.1828</t>
+          <t>-2.3003</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>-0.3893</t>
+          <t>-0.8327</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>0.1095</t>
+          <t>0.1062</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>-41.37%</t>
+          <t>-59.02%</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>-8.48%</t>
+          <t>-22.35%</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>8.56%</t>
+          <t>8.38%</t>
         </is>
       </c>
     </row>
@@ -745,12 +745,12 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -760,67 +760,67 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>4,009</t>
+          <t>913</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>4.34%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>14.19%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>61.51%</t>
+          <t>78.57%</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>14.96%</t>
+          <t>27.48%</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>36.55%</t>
+          <t>36.65%</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>27.23%</t>
+          <t>27.13%</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>4.1439</t>
+          <t>3.7326</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>0.2667</t>
+          <t>0.1656</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>0.1612</t>
+          <t>0.1898</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>66.5%</t>
+          <t>107.06%</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>14.25%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>8.89%</t>
+          <t>9.65%</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>782.17</t>
+          <t>911.33</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>772.66</t>
+          <t>838.42</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
@@ -853,62 +853,62 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>1.86%</t>
+          <t>9.66%</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>36.23%</t>
+          <t>55.32%</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>93.25%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>21.03%</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>15.07%</t>
+          <t>15.94%</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>12.6%</t>
+          <t>12.76%</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>2.5057</t>
+          <t>15.3379</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>2.2216</t>
+          <t>3.3485</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>0.7410</t>
+          <t>1.0898</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>22.44%</t>
+          <t>327.09%</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>37.98%</t>
+          <t>57.87%</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>13.84%</t>
+          <t>18.4%</t>
         </is>
       </c>
     </row>
